--- a/DDAf_2024_Tableau_annexe_Tab34.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab34.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00A749DF-86DE-4712-B0A6-ED159B8F661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{735F7C72-EF8C-492D-A0F7-96F1433397F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{77E8EB7D-F169-498E-8561-0DA39367836E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{725BAF7B-9432-4D6F-9027-68898D24D673}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab34" sheetId="1" r:id="rId1"/>
@@ -1491,7 +1491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DF47CC-0838-4124-862A-968F08954B4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9862F488-BA4D-4618-943F-7704315936C7}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1499,15 +1499,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="4" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1537,7 +1537,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="113.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>28</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>33</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>41</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>43</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>10.1300001</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>47</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>49</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>10.1300001</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>51</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>53</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>55</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>57</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>59</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>61</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>63</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>67</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>49</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>70</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>72</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>74</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>76</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>78</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>80</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>82</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>84</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>86</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>88</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>90</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>92</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>94</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>96</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>49</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>99</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>20.829999399999998</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>101</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>103</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>105</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>107</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>31.110000599999999</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>109</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>29.170000600000002</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>49</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>27.0366668666667</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>112</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>114</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>116</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>118</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>120</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>122</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>124</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>126</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>128</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>130</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>132</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>134</v>
       </c>
@@ -6185,7 +6185,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>136</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>11.1400001</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>138</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>140</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="s">
         <v>49</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>11.1400001</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
         <v>49</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>20.476000160000002</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="44" t="s">
         <v>49</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>65.178947267105301</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
         <v>49</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>50.110666746666702</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
         <v>49</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>44.065000124999997</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="53" t="s">
         <v>49</v>
       </c>
@@ -6932,7 +6932,7 @@
         <v>62.419506087654398</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>49</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>19.650000349999999</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="53" t="s">
         <v>49</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>23.806667099999999</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="53" t="s">
         <v>49</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="53" t="s">
         <v>49</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="53" t="s">
         <v>49</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>11.1400001</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
         <v>49</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="53" t="s">
         <v>49</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>10.1300001</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="53" t="s">
         <v>49</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>27.0366668666667</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="53" t="s">
         <v>49</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="53" t="s">
         <v>49</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>49.541249887500001</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="53" t="s">
         <v>49</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>54.316249862500001</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="53" t="s">
         <v>49</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>77.452000131999995</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="53" t="s">
         <v>49</v>
       </c>
@@ -8011,7 +8011,7 @@
         <v>78.237297083783801</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="53" t="s">
         <v>49</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>20.829999399999998</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="53" t="s">
         <v>49</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>54.930000012500003</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="53" t="s">
         <v>49</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>20.38750035</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="53" t="s">
         <v>49</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>66.384705767647105</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="53" t="s">
         <v>49</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="53" t="s">
         <v>49</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="53" t="s">
         <v>49</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>20.476000160000002</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="53" t="s">
         <v>49</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>47.295714285714297</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="53" t="s">
         <v>49</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="53" t="s">
         <v>49</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>53.141199936</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="53" t="s">
         <v>49</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>74.863636224999993</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="53" t="s">
         <v>49</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>10.635000099999999</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="53" t="s">
         <v>49</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>15.950000299999999</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="53" t="s">
         <v>49</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="53" t="s">
         <v>49</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>57.236667500000003</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="53" t="s">
         <v>49</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>10.1300001</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="53" t="s">
         <v>49</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>48.830001025000001</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="53" t="s">
         <v>49</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>10.1300001</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="53" t="s">
         <v>49</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>29.8333327</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="70"/>
       <c r="B99" s="71"/>
       <c r="C99" s="51"/>
@@ -9617,7 +9617,7 @@
       <c r="Z99" s="51"/>
       <c r="AA99" s="51"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>178</v>
       </c>
@@ -9647,7 +9647,7 @@
       <c r="Z100" s="72"/>
       <c r="AA100" s="72"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>179</v>
       </c>
@@ -9677,7 +9677,7 @@
       <c r="Z101" s="72"/>
       <c r="AA101" s="72"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>180</v>
       </c>
@@ -9707,7 +9707,7 @@
       <c r="Z102" s="72"/>
       <c r="AA102" s="72"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>181</v>
       </c>
@@ -9737,7 +9737,7 @@
       <c r="Z103" s="72"/>
       <c r="AA103" s="72"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
@@ -9767,7 +9767,7 @@
       <c r="Z104" s="72"/>
       <c r="AA104" s="72"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C105" s="72"/>
       <c r="D105" s="72"/>
       <c r="E105" s="72"/>
@@ -9794,7 +9794,7 @@
       <c r="Z105" s="72"/>
       <c r="AA105" s="72"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B106" s="73"/>
       <c r="C106" s="72"/>
       <c r="D106" s="72"/>
@@ -9822,7 +9822,7 @@
       <c r="Z106" s="72"/>
       <c r="AA106" s="72"/>
     </row>
-    <row r="107" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="74" t="s">
         <v>183</v>
       </c>
@@ -9852,7 +9852,7 @@
       <c r="Z107" s="72"/>
       <c r="AA107" s="72"/>
     </row>
-    <row r="108" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="74"/>
       <c r="C108" s="72"/>
       <c r="D108" s="72"/>
@@ -9880,7 +9880,7 @@
       <c r="Z108" s="72"/>
       <c r="AA108" s="72"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>185</v>
       </c>
@@ -9910,7 +9910,7 @@
       <c r="Z109" s="72"/>
       <c r="AA109" s="72"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>186</v>
       </c>
@@ -9940,7 +9940,7 @@
       <c r="Z110" s="72"/>
       <c r="AA110" s="72"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B111" s="76" t="s">
         <v>187</v>
       </c>
@@ -9970,7 +9970,7 @@
       <c r="Z111" s="72"/>
       <c r="AA111" s="72"/>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>184</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="Z112" s="72"/>
       <c r="AA112" s="72"/>
     </row>
-    <row r="113" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="72"/>
       <c r="D113" s="72"/>
@@ -10028,7 +10028,7 @@
       <c r="Z113" s="72"/>
       <c r="AA113" s="72"/>
     </row>
-    <row r="114" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="72"/>
       <c r="D114" s="72"/>
@@ -10058,11 +10058,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{34392AE5-ABC0-497D-B0E6-991DDD2C842F}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{92D4DC33-C593-4D8A-8387-1FD771C196A4}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{FA56E669-C7AB-4336-8292-9C19563E6430}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{255E0FD0-84E2-419F-A3D3-CAE8E1927D05}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{C149257E-1E1B-4864-B3CB-E934DE601C83}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C1FE1866-90FB-4994-9888-23DF235333C5}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2C676B5E-548D-471F-A766-82329DDD3619}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{D941F2C3-BD61-41DB-90FC-235050A9D7B7}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{EDFD118C-E8EB-4A53-BE4A-0837459AA41F}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{4230DA1A-45FD-45D6-A6A4-D386DB50D168}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab34.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab34.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{735F7C72-EF8C-492D-A0F7-96F1433397F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2C2FE8-DCC6-4518-A65D-A637C780E990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{725BAF7B-9432-4D6F-9027-68898D24D673}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B2916DCD-54CB-4417-92C4-F28ABD20EC50}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab34" sheetId="1" r:id="rId1"/>
@@ -611,7 +611,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,13 +736,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -958,7 +951,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1172,10 +1165,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1491,7 +1483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9862F488-BA4D-4618-943F-7704315936C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F2EF9E-EDD9-4DE3-875A-235C787B8B1C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9795,7 +9787,6 @@
       <c r="AA105" s="72"/>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B106" s="73"/>
       <c r="C106" s="72"/>
       <c r="D106" s="72"/>
       <c r="E106" s="72"/>
@@ -9823,7 +9814,7 @@
       <c r="AA106" s="72"/>
     </row>
     <row r="107" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="74" t="s">
+      <c r="B107" s="73" t="s">
         <v>183</v>
       </c>
       <c r="C107" s="72"/>
@@ -9853,7 +9844,7 @@
       <c r="AA107" s="72"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="74"/>
+      <c r="B108" s="73"/>
       <c r="C108" s="72"/>
       <c r="D108" s="72"/>
       <c r="E108" s="72"/>
@@ -9941,7 +9932,7 @@
       <c r="AA110" s="72"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B111" s="76" t="s">
+      <c r="B111" s="74" t="s">
         <v>187</v>
       </c>
       <c r="C111" s="72"/>
@@ -9971,7 +9962,7 @@
       <c r="AA111" s="72"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="74" t="s">
         <v>184</v>
       </c>
       <c r="C112" s="72"/>
@@ -10058,11 +10049,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{C1FE1866-90FB-4994-9888-23DF235333C5}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{2C676B5E-548D-471F-A766-82329DDD3619}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{D941F2C3-BD61-41DB-90FC-235050A9D7B7}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{EDFD118C-E8EB-4A53-BE4A-0837459AA41F}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{4230DA1A-45FD-45D6-A6A4-D386DB50D168}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A148C886-BC32-4E8E-A8B6-F824311E9807}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{58ADCCC3-E369-4DAA-9AC8-45F2E0C8E8FE}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{9B8D3A4F-7EE3-45EB-BF4D-EEE87DA76A4C}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{25170CF8-D4EF-4825-BB54-F345D8D0AA66}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{6A5104F9-0030-4C8D-B837-3E1FBF7A3B90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab34.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab34.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED2C2FE8-DCC6-4518-A65D-A637C780E990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA38228-FC58-4750-918F-C3176D1C05E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{B2916DCD-54CB-4417-92C4-F28ABD20EC50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C16C0947-1398-47AC-B429-40786DAA602E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab34" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="190">
   <si>
     <t>Tableau 34 : Nombre moyen d’années de scolarisation</t>
   </si>
@@ -507,13 +507,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1483,7 +1489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F2EF9E-EDD9-4DE3-875A-235C787B8B1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F10A7E-104E-4A03-AEF5-753C88CF6E28}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7510,7 +7516,7 @@
         <v>49</v>
       </c>
       <c r="B74" s="49" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C74" s="58">
         <v>9.9526667603333401</v>
@@ -7593,7 +7599,7 @@
         <v>49</v>
       </c>
       <c r="B75" s="49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75" s="50">
         <v>8.7043499944999994</v>
@@ -7676,7 +7682,7 @@
         <v>49</v>
       </c>
       <c r="B76" s="65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C76" s="66">
         <v>10.757100104499999</v>
@@ -7759,7 +7765,7 @@
         <v>49</v>
       </c>
       <c r="B77" s="49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C77" s="58">
         <v>12.559650420000001</v>
@@ -7842,7 +7848,7 @@
         <v>49</v>
       </c>
       <c r="B78" s="49" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C78" s="58">
         <v>12.4145772236364</v>
@@ -7925,7 +7931,7 @@
         <v>49</v>
       </c>
       <c r="B79" s="61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C79" s="62">
         <v>12.5567629781482</v>
@@ -8008,7 +8014,7 @@
         <v>49</v>
       </c>
       <c r="B80" s="49" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C80" s="58">
         <v>8.3147333476666692</v>
@@ -8091,7 +8097,7 @@
         <v>49</v>
       </c>
       <c r="B81" s="49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C81" s="58">
         <v>12.127660177999999</v>
@@ -8174,7 +8180,7 @@
         <v>49</v>
       </c>
       <c r="B82" s="49" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C82" s="58">
         <v>8.1067618867142901</v>
@@ -8257,7 +8263,7 @@
         <v>49</v>
       </c>
       <c r="B83" s="49" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C83" s="50">
         <v>12.641086216672401</v>
@@ -8340,7 +8346,7 @@
         <v>49</v>
       </c>
       <c r="B84" s="65" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C84" s="66">
         <v>7.1655733423333299</v>
@@ -8423,7 +8429,7 @@
         <v>49</v>
       </c>
       <c r="B85" s="69" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C85" s="58" t="s">
         <v>30</v>
@@ -8506,7 +8512,7 @@
         <v>49</v>
       </c>
       <c r="B86" s="49" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C86" s="58">
         <v>9.7447332810000002</v>
@@ -8589,7 +8595,7 @@
         <v>49</v>
       </c>
       <c r="B87" s="49" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C87" s="58">
         <v>11.5623500676429</v>
@@ -8672,7 +8678,7 @@
         <v>49</v>
       </c>
       <c r="B88" s="49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C88" s="58" t="s">
         <v>30</v>
@@ -8755,7 +8761,7 @@
         <v>49</v>
       </c>
       <c r="B89" s="49" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C89" s="58">
         <v>13.3577200415</v>
@@ -8838,7 +8844,7 @@
         <v>49</v>
       </c>
       <c r="B90" s="61" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C90" s="62">
         <v>12.5791034372414</v>
@@ -8921,7 +8927,7 @@
         <v>49</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C91" s="58">
         <v>7.0970947112631597</v>
@@ -9004,7 +9010,7 @@
         <v>49</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C92" s="58">
         <v>10.649679947399999</v>
@@ -9087,7 +9093,7 @@
         <v>49</v>
       </c>
       <c r="B93" s="49" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93" s="58">
         <v>8.7043499944999994</v>
@@ -9170,7 +9176,7 @@
         <v>49</v>
       </c>
       <c r="B94" s="49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C94" s="58">
         <v>13.392388873333299</v>
@@ -9253,7 +9259,7 @@
         <v>49</v>
       </c>
       <c r="B95" s="49" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C95" s="58">
         <v>6.9647889139999997</v>
@@ -9336,7 +9342,7 @@
         <v>49</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C96" s="50">
         <v>12.4694715211429</v>
@@ -9419,7 +9425,7 @@
         <v>49</v>
       </c>
       <c r="B97" s="65" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C97" s="66">
         <v>7.35631531930769</v>
@@ -9502,7 +9508,7 @@
         <v>49</v>
       </c>
       <c r="B98" s="61" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C98" s="62">
         <v>10.3235601418</v>
@@ -9611,7 +9617,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C100" s="72"/>
       <c r="D100" s="72"/>
@@ -9641,7 +9647,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C101" s="72"/>
       <c r="D101" s="72"/>
@@ -9671,7 +9677,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C102" s="72"/>
       <c r="D102" s="72"/>
@@ -9701,7 +9707,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C103" s="72"/>
       <c r="D103" s="72"/>
@@ -9731,7 +9737,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C104" s="72"/>
       <c r="D104" s="72"/>
@@ -9815,7 +9821,7 @@
     </row>
     <row r="107" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="73" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C107" s="72"/>
       <c r="D107" s="72"/>
@@ -9873,7 +9879,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C109" s="72"/>
       <c r="D109" s="72"/>
@@ -9903,7 +9909,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C110" s="72"/>
       <c r="D110" s="72"/>
@@ -9933,7 +9939,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B111" s="74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C111" s="72"/>
       <c r="D111" s="72"/>
@@ -9963,7 +9969,7 @@
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B112" s="74" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C112" s="72"/>
       <c r="D112" s="72"/>
@@ -10049,11 +10055,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{A148C886-BC32-4E8E-A8B6-F824311E9807}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{58ADCCC3-E369-4DAA-9AC8-45F2E0C8E8FE}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{9B8D3A4F-7EE3-45EB-BF4D-EEE87DA76A4C}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{25170CF8-D4EF-4825-BB54-F345D8D0AA66}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{6A5104F9-0030-4C8D-B837-3E1FBF7A3B90}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{3AE36EB7-3039-4669-BD8A-37F0F2E09C07}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{B3959528-06F6-459A-9E9C-ECD0BA1D3136}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{613A2AEF-5493-46DA-B705-FAC2A79289F2}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{82294B68-DCE5-4941-9E19-6B4BA4A2D4E9}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{5A1327DB-25E5-4FF5-87E3-127DEC8BAC42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
